--- a/excel/books.xlsx
+++ b/excel/books.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1941">
   <si>
     <t>en11.1</t>
   </si>
@@ -5831,6 +5831,12 @@
   </si>
   <si>
     <t xml:space="preserve">Шацких В.Н. и др. Французскийязык  7 класс  Дрофа </t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Нет данных</t>
   </si>
 </sst>
 </file>
@@ -5881,7 +5887,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5994,6 +6000,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6003,7 +6027,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6277,6 +6301,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6584,10 +6614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1003"/>
+  <dimension ref="A1:B1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1005" sqref="B1005"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14619,6 +14649,14 @@
         <v>1258</v>
       </c>
     </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="92" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1004" s="93" t="s">
+        <v>1940</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B1005">
     <sortCondition ref="A1"/>
